--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Cntn2</t>
+  </si>
+  <si>
+    <t>Nrcam</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cntn2</t>
-  </si>
-  <si>
-    <t>Nrcam</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.023556</v>
+        <v>0.04141366666666667</v>
       </c>
       <c r="H2">
-        <v>0.07066799999999999</v>
+        <v>0.124241</v>
       </c>
       <c r="I2">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="J2">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.007418999999999999</v>
+        <v>0.7345693333333333</v>
       </c>
       <c r="N2">
-        <v>0.022257</v>
+        <v>2.203708</v>
       </c>
       <c r="O2">
-        <v>0.001178455002445385</v>
+        <v>0.0389188108551246</v>
       </c>
       <c r="P2">
-        <v>0.001178455002445386</v>
+        <v>0.0389188108551246</v>
       </c>
       <c r="Q2">
-        <v>0.000174761964</v>
+        <v>0.03042120951422222</v>
       </c>
       <c r="R2">
-        <v>0.001572857676</v>
+        <v>0.273790885628</v>
       </c>
       <c r="S2">
-        <v>0.0003053557321316861</v>
+        <v>0.02461244632161345</v>
       </c>
       <c r="T2">
-        <v>0.0003053557321316862</v>
+        <v>0.02461244632161345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.023556</v>
+        <v>0.04141366666666667</v>
       </c>
       <c r="H3">
-        <v>0.07066799999999999</v>
+        <v>0.124241</v>
       </c>
       <c r="I3">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="J3">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>7.921608</v>
       </c>
       <c r="O3">
-        <v>0.4194302275693663</v>
+        <v>0.1399003694774634</v>
       </c>
       <c r="P3">
-        <v>0.4194302275693663</v>
+        <v>0.1399003694774634</v>
       </c>
       <c r="Q3">
-        <v>0.06220046601599999</v>
+        <v>0.1093542777253333</v>
       </c>
       <c r="R3">
-        <v>0.559804194144</v>
+        <v>0.984188499528</v>
       </c>
       <c r="S3">
-        <v>0.1086807930314158</v>
+        <v>0.08847367785607881</v>
       </c>
       <c r="T3">
-        <v>0.1086807930314159</v>
+        <v>0.08847367785607881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.023556</v>
+        <v>0.04141366666666667</v>
       </c>
       <c r="H4">
-        <v>0.07066799999999999</v>
+        <v>0.124241</v>
       </c>
       <c r="I4">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="J4">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.009572000000000001</v>
+        <v>15.34277233333333</v>
       </c>
       <c r="N4">
-        <v>0.028716</v>
+        <v>46.028317</v>
       </c>
       <c r="O4">
-        <v>0.001520443628980622</v>
+        <v>0.8128878069611384</v>
       </c>
       <c r="P4">
-        <v>0.001520443628980622</v>
+        <v>0.8128878069611384</v>
       </c>
       <c r="Q4">
-        <v>0.000225478032</v>
+        <v>0.6354004591552223</v>
       </c>
       <c r="R4">
-        <v>0.002029302288</v>
+        <v>5.718604132397</v>
       </c>
       <c r="S4">
-        <v>0.0003939702207796873</v>
+        <v>0.5140742246416985</v>
       </c>
       <c r="T4">
-        <v>0.0003939702207796874</v>
+        <v>0.5140742246416985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.023556</v>
+        <v>0.04141366666666667</v>
       </c>
       <c r="H5">
-        <v>0.07066799999999999</v>
+        <v>0.124241</v>
       </c>
       <c r="I5">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="J5">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.633645666666666</v>
+        <v>0.05962666666666666</v>
       </c>
       <c r="N5">
-        <v>10.900937</v>
+        <v>0.17888</v>
       </c>
       <c r="O5">
-        <v>0.577178583771038</v>
+        <v>0.003159128562298039</v>
       </c>
       <c r="P5">
-        <v>0.577178583771038</v>
+        <v>0.003159128562298039</v>
       </c>
       <c r="Q5">
-        <v>0.08559415732399998</v>
+        <v>0.002469358897777778</v>
       </c>
       <c r="R5">
-        <v>0.7703474159159999</v>
+        <v>0.02222423008</v>
       </c>
       <c r="S5">
-        <v>0.1495558070969307</v>
+        <v>0.001997848352871712</v>
       </c>
       <c r="T5">
-        <v>0.1495558070969307</v>
+        <v>0.001997848352871712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.023556</v>
+        <v>0.04141366666666667</v>
       </c>
       <c r="H6">
-        <v>0.07066799999999999</v>
+        <v>0.124241</v>
       </c>
       <c r="I6">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="J6">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.004358333333333333</v>
+        <v>0.096899</v>
       </c>
       <c r="N6">
-        <v>0.013075</v>
+        <v>0.290697</v>
       </c>
       <c r="O6">
-        <v>0.0006922900281697181</v>
+        <v>0.005133884143975588</v>
       </c>
       <c r="P6">
-        <v>0.0006922900281697181</v>
+        <v>0.005133884143975588</v>
       </c>
       <c r="Q6">
-        <v>0.0001026649</v>
+        <v>0.004012942886333333</v>
       </c>
       <c r="R6">
-        <v>0.0009239840999999999</v>
+        <v>0.036116485977</v>
       </c>
       <c r="S6">
-        <v>0.0001793829445847058</v>
+        <v>0.003246693440489423</v>
       </c>
       <c r="T6">
-        <v>0.0001793829445847058</v>
+        <v>0.003246693440489423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,46 +850,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.04141366666666667</v>
+        <v>0.01422266666666667</v>
       </c>
       <c r="H7">
-        <v>0.124241</v>
+        <v>0.042668</v>
       </c>
       <c r="I7">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="J7">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.007418999999999999</v>
+        <v>0.7345693333333333</v>
       </c>
       <c r="N7">
-        <v>0.022257</v>
+        <v>2.203708</v>
       </c>
       <c r="O7">
-        <v>0.001178455002445385</v>
+        <v>0.0389188108551246</v>
       </c>
       <c r="P7">
-        <v>0.001178455002445386</v>
+        <v>0.0389188108551246</v>
       </c>
       <c r="Q7">
-        <v>0.000307247993</v>
+        <v>0.01044753477155556</v>
       </c>
       <c r="R7">
-        <v>0.002765231937</v>
+        <v>0.09402781294399999</v>
       </c>
       <c r="S7">
-        <v>0.0005368441375979626</v>
+        <v>0.008452635278616581</v>
       </c>
       <c r="T7">
-        <v>0.0005368441375979627</v>
+        <v>0.008452635278616581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.04141366666666667</v>
+        <v>0.01422266666666667</v>
       </c>
       <c r="H8">
-        <v>0.124241</v>
+        <v>0.042668</v>
       </c>
       <c r="I8">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="J8">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,22 +936,22 @@
         <v>7.921608</v>
       </c>
       <c r="O8">
-        <v>0.4194302275693663</v>
+        <v>0.1399003694774634</v>
       </c>
       <c r="P8">
-        <v>0.4194302275693663</v>
+        <v>0.1399003694774634</v>
       </c>
       <c r="Q8">
-        <v>0.1093542777253333</v>
+        <v>0.03755546334933333</v>
       </c>
       <c r="R8">
-        <v>0.984188499528</v>
+        <v>0.337999170144</v>
       </c>
       <c r="S8">
-        <v>0.1910710704564462</v>
+        <v>0.03038445349573144</v>
       </c>
       <c r="T8">
-        <v>0.1910710704564462</v>
+        <v>0.03038445349573144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,46 +974,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.04141366666666667</v>
+        <v>0.01422266666666667</v>
       </c>
       <c r="H9">
-        <v>0.124241</v>
+        <v>0.042668</v>
       </c>
       <c r="I9">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="J9">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.009572000000000001</v>
+        <v>15.34277233333333</v>
       </c>
       <c r="N9">
-        <v>0.028716</v>
+        <v>46.028317</v>
       </c>
       <c r="O9">
-        <v>0.001520443628980622</v>
+        <v>0.8128878069611384</v>
       </c>
       <c r="P9">
-        <v>0.001520443628980622</v>
+        <v>0.8128878069611384</v>
       </c>
       <c r="Q9">
-        <v>0.0003964116173333334</v>
+        <v>0.2182151366395556</v>
       </c>
       <c r="R9">
-        <v>0.003567704556</v>
+        <v>1.963936229756</v>
       </c>
       <c r="S9">
-        <v>0.0006926367549653186</v>
+        <v>0.1765481525181863</v>
       </c>
       <c r="T9">
-        <v>0.0006926367549653187</v>
+        <v>0.1765481525181863</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,46 +1036,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.04141366666666667</v>
+        <v>0.01422266666666667</v>
       </c>
       <c r="H10">
-        <v>0.124241</v>
+        <v>0.042668</v>
       </c>
       <c r="I10">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="J10">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.633645666666666</v>
+        <v>0.05962666666666666</v>
       </c>
       <c r="N10">
-        <v>10.900937</v>
+        <v>0.17888</v>
       </c>
       <c r="O10">
-        <v>0.577178583771038</v>
+        <v>0.003159128562298039</v>
       </c>
       <c r="P10">
-        <v>0.577178583771038</v>
+        <v>0.003159128562298039</v>
       </c>
       <c r="Q10">
-        <v>0.1504825904241111</v>
+        <v>0.0008480502044444444</v>
       </c>
       <c r="R10">
-        <v>1.354343313817</v>
+        <v>0.007632451839999999</v>
       </c>
       <c r="S10">
-        <v>0.2629331950745708</v>
+        <v>0.0006861196667793256</v>
       </c>
       <c r="T10">
-        <v>0.2629331950745708</v>
+        <v>0.0006861196667793256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,46 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04141366666666667</v>
+        <v>0.01422266666666667</v>
       </c>
       <c r="H11">
-        <v>0.124241</v>
+        <v>0.042668</v>
       </c>
       <c r="I11">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="J11">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.004358333333333333</v>
+        <v>0.096899</v>
       </c>
       <c r="N11">
-        <v>0.013075</v>
+        <v>0.290697</v>
       </c>
       <c r="O11">
-        <v>0.0006922900281697181</v>
+        <v>0.005133884143975588</v>
       </c>
       <c r="P11">
-        <v>0.0006922900281697181</v>
+        <v>0.005133884143975588</v>
       </c>
       <c r="Q11">
-        <v>0.0001804945638888889</v>
+        <v>0.001378162177333333</v>
       </c>
       <c r="R11">
-        <v>0.001624451075</v>
+        <v>0.012403459596</v>
       </c>
       <c r="S11">
-        <v>0.0003153721121037589</v>
+        <v>0.001115009664432858</v>
       </c>
       <c r="T11">
-        <v>0.0003153721121037589</v>
+        <v>0.001115009664432858</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,46 +1160,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01422266666666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="H12">
-        <v>0.042668</v>
+        <v>0.029549</v>
       </c>
       <c r="I12">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="J12">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.007418999999999999</v>
+        <v>0.7345693333333333</v>
       </c>
       <c r="N12">
-        <v>0.022257</v>
+        <v>2.203708</v>
       </c>
       <c r="O12">
-        <v>0.001178455002445385</v>
+        <v>0.0389188108551246</v>
       </c>
       <c r="P12">
-        <v>0.001178455002445386</v>
+        <v>0.0389188108551246</v>
       </c>
       <c r="Q12">
-        <v>0.000105517964</v>
+        <v>0.007235263076888888</v>
       </c>
       <c r="R12">
-        <v>0.0009496616759999999</v>
+        <v>0.06511736769199999</v>
       </c>
       <c r="S12">
-        <v>0.0001843680078478913</v>
+        <v>0.005853729254894567</v>
       </c>
       <c r="T12">
-        <v>0.0001843680078478914</v>
+        <v>0.005853729254894567</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01422266666666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="H13">
-        <v>0.042668</v>
+        <v>0.029549</v>
       </c>
       <c r="I13">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="J13">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1246,22 @@
         <v>7.921608</v>
       </c>
       <c r="O13">
-        <v>0.4194302275693663</v>
+        <v>0.1399003694774634</v>
       </c>
       <c r="P13">
-        <v>0.4194302275693663</v>
+        <v>0.1399003694774634</v>
       </c>
       <c r="Q13">
-        <v>0.03755546334933333</v>
+        <v>0.02600839942133333</v>
       </c>
       <c r="R13">
-        <v>0.337999170144</v>
+        <v>0.234075594792</v>
       </c>
       <c r="S13">
-        <v>0.06561940449799698</v>
+        <v>0.02104223812565315</v>
       </c>
       <c r="T13">
-        <v>0.06561940449799698</v>
+        <v>0.02104223812565315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,46 +1284,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01422266666666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="H14">
-        <v>0.042668</v>
+        <v>0.029549</v>
       </c>
       <c r="I14">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="J14">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.009572000000000001</v>
+        <v>15.34277233333333</v>
       </c>
       <c r="N14">
-        <v>0.028716</v>
+        <v>46.028317</v>
       </c>
       <c r="O14">
-        <v>0.001520443628980622</v>
+        <v>0.8128878069611384</v>
       </c>
       <c r="P14">
-        <v>0.001520443628980622</v>
+        <v>0.8128878069611384</v>
       </c>
       <c r="Q14">
-        <v>0.0001361393653333333</v>
+        <v>0.1511211932258889</v>
       </c>
       <c r="R14">
-        <v>0.001225254288</v>
+        <v>1.360090739033</v>
       </c>
       <c r="S14">
-        <v>0.0002378717578002448</v>
+        <v>0.1222654298012536</v>
       </c>
       <c r="T14">
-        <v>0.0002378717578002448</v>
+        <v>0.1222654298012536</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1349,46 +1346,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01422266666666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="H15">
-        <v>0.042668</v>
+        <v>0.029549</v>
       </c>
       <c r="I15">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="J15">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>3.633645666666666</v>
+        <v>0.05962666666666666</v>
       </c>
       <c r="N15">
-        <v>10.900937</v>
+        <v>0.17888</v>
       </c>
       <c r="O15">
-        <v>0.577178583771038</v>
+        <v>0.003159128562298039</v>
       </c>
       <c r="P15">
-        <v>0.577178583771038</v>
+        <v>0.003159128562298039</v>
       </c>
       <c r="Q15">
-        <v>0.05168013110177777</v>
+        <v>0.000587302791111111</v>
       </c>
       <c r="R15">
-        <v>0.4651211799159999</v>
+        <v>0.005285725119999999</v>
       </c>
       <c r="S15">
-        <v>0.09029896384801946</v>
+        <v>0.0004751605426470022</v>
       </c>
       <c r="T15">
-        <v>0.09029896384801946</v>
+        <v>0.0004751605426470022</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,356 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01422266666666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="H16">
-        <v>0.042668</v>
+        <v>0.029549</v>
       </c>
       <c r="I16">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="J16">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.004358333333333333</v>
+        <v>0.096899</v>
       </c>
       <c r="N16">
-        <v>0.013075</v>
+        <v>0.290697</v>
       </c>
       <c r="O16">
-        <v>0.0006922900281697181</v>
+        <v>0.005133884143975588</v>
       </c>
       <c r="P16">
-        <v>0.0006922900281697181</v>
+        <v>0.005133884143975588</v>
       </c>
       <c r="Q16">
-        <v>6.198712222222221E-05</v>
+        <v>0.0009544228503333333</v>
       </c>
       <c r="R16">
-        <v>0.0005578841</v>
+        <v>0.008589805652999999</v>
       </c>
       <c r="S16">
-        <v>0.0001083080245590681</v>
+        <v>0.0007721810390533074</v>
       </c>
       <c r="T16">
-        <v>0.0001083080245590681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.011717</v>
-      </c>
-      <c r="H17">
-        <v>0.035151</v>
-      </c>
-      <c r="I17">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J17">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.007418999999999999</v>
-      </c>
-      <c r="N17">
-        <v>0.022257</v>
-      </c>
-      <c r="O17">
-        <v>0.001178455002445385</v>
-      </c>
-      <c r="P17">
-        <v>0.001178455002445386</v>
-      </c>
-      <c r="Q17">
-        <v>8.6928423E-05</v>
-      </c>
-      <c r="R17">
-        <v>0.000782355807</v>
-      </c>
-      <c r="S17">
-        <v>0.0001518871248678454</v>
-      </c>
-      <c r="T17">
-        <v>0.0001518871248678455</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.011717</v>
-      </c>
-      <c r="H18">
-        <v>0.035151</v>
-      </c>
-      <c r="I18">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J18">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.640536</v>
-      </c>
-      <c r="N18">
-        <v>7.921608</v>
-      </c>
-      <c r="O18">
-        <v>0.4194302275693663</v>
-      </c>
-      <c r="P18">
-        <v>0.4194302275693663</v>
-      </c>
-      <c r="Q18">
-        <v>0.030939160312</v>
-      </c>
-      <c r="R18">
-        <v>0.278452442808</v>
-      </c>
-      <c r="S18">
-        <v>0.05405895958350737</v>
-      </c>
-      <c r="T18">
-        <v>0.05405895958350737</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.011717</v>
-      </c>
-      <c r="H19">
-        <v>0.035151</v>
-      </c>
-      <c r="I19">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J19">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.009572000000000001</v>
-      </c>
-      <c r="N19">
-        <v>0.028716</v>
-      </c>
-      <c r="O19">
-        <v>0.001520443628980622</v>
-      </c>
-      <c r="P19">
-        <v>0.001520443628980622</v>
-      </c>
-      <c r="Q19">
-        <v>0.000112155124</v>
-      </c>
-      <c r="R19">
-        <v>0.001009396116</v>
-      </c>
-      <c r="S19">
-        <v>0.0001959648954353709</v>
-      </c>
-      <c r="T19">
-        <v>0.0001959648954353709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.011717</v>
-      </c>
-      <c r="H20">
-        <v>0.035151</v>
-      </c>
-      <c r="I20">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J20">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>3.633645666666666</v>
-      </c>
-      <c r="N20">
-        <v>10.900937</v>
-      </c>
-      <c r="O20">
-        <v>0.577178583771038</v>
-      </c>
-      <c r="P20">
-        <v>0.577178583771038</v>
-      </c>
-      <c r="Q20">
-        <v>0.04257542627633333</v>
-      </c>
-      <c r="R20">
-        <v>0.383178836487</v>
-      </c>
-      <c r="S20">
-        <v>0.07439061775151712</v>
-      </c>
-      <c r="T20">
-        <v>0.07439061775151712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.011717</v>
-      </c>
-      <c r="H21">
-        <v>0.035151</v>
-      </c>
-      <c r="I21">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J21">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.004358333333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.013075</v>
-      </c>
-      <c r="O21">
-        <v>0.0006922900281697181</v>
-      </c>
-      <c r="P21">
-        <v>0.0006922900281697181</v>
-      </c>
-      <c r="Q21">
-        <v>5.106659166666666E-05</v>
-      </c>
-      <c r="R21">
-        <v>0.000459599325</v>
-      </c>
-      <c r="S21">
-        <v>8.922694692218535E-05</v>
-      </c>
-      <c r="T21">
-        <v>8.922694692218535E-05</v>
+        <v>0.0007721810390533074</v>
       </c>
     </row>
   </sheetData>
